--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>153.5109633286608</v>
+        <v>206.8366664962778</v>
       </c>
       <c r="R2">
-        <v>153.5109633286608</v>
+        <v>1861.5299984665</v>
       </c>
       <c r="S2">
-        <v>0.014640709247574</v>
+        <v>0.01329863143612659</v>
       </c>
       <c r="T2">
-        <v>0.014640709247574</v>
+        <v>0.01329863143612659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>82.40454020479189</v>
+        <v>86.18391655253333</v>
       </c>
       <c r="R3">
-        <v>82.40454020479189</v>
+        <v>775.6552489728</v>
       </c>
       <c r="S3">
-        <v>0.007859118903679838</v>
+        <v>0.005541223233621664</v>
       </c>
       <c r="T3">
-        <v>0.007859118903679838</v>
+        <v>0.005541223233621667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>6.676871526794026</v>
+        <v>7.174431142988889</v>
       </c>
       <c r="R4">
-        <v>6.676871526794026</v>
+        <v>64.5698802869</v>
       </c>
       <c r="S4">
-        <v>0.0006367892728150575</v>
+        <v>0.0004612824077601088</v>
       </c>
       <c r="T4">
-        <v>0.0006367892728150575</v>
+        <v>0.0004612824077601089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>6.608874953162738</v>
+        <v>6.7232932218</v>
       </c>
       <c r="R5">
-        <v>6.608874953162738</v>
+        <v>60.5096389962</v>
       </c>
       <c r="S5">
-        <v>0.000630304276285946</v>
+        <v>0.0004322763468794123</v>
       </c>
       <c r="T5">
-        <v>0.000630304276285946</v>
+        <v>0.0004322763468794123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>168.327517975674</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>168.327517975674</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>863.5821777850133</v>
+        <v>8.313347615055555</v>
       </c>
       <c r="R6">
-        <v>863.5821777850133</v>
+        <v>74.8201285355</v>
       </c>
       <c r="S6">
-        <v>0.08236190629113579</v>
+        <v>0.000534509416564279</v>
       </c>
       <c r="T6">
-        <v>0.08236190629113579</v>
+        <v>0.0005345094165642791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>463.5700978377</v>
+        <v>1125.265523974405</v>
       </c>
       <c r="R7">
-        <v>463.5700978377</v>
+        <v>10127.38971576964</v>
       </c>
       <c r="S7">
-        <v>0.04421179354975786</v>
+        <v>0.07234931661106025</v>
       </c>
       <c r="T7">
-        <v>0.04421179354975786</v>
+        <v>0.07234931661106025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>37.56101276984823</v>
+        <v>468.871364349696</v>
       </c>
       <c r="R8">
-        <v>37.56101276984823</v>
+        <v>4219.842279147264</v>
       </c>
       <c r="S8">
-        <v>0.00358228399512031</v>
+        <v>0.03014623843569167</v>
       </c>
       <c r="T8">
-        <v>0.00358228399512031</v>
+        <v>0.03014623843569168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>37.17849527490745</v>
+        <v>39.031474235633</v>
       </c>
       <c r="R9">
-        <v>37.17849527490745</v>
+        <v>351.283268120697</v>
       </c>
       <c r="S9">
-        <v>0.003545802382966341</v>
+        <v>0.002509541461197814</v>
       </c>
       <c r="T9">
-        <v>0.003545802382966341</v>
+        <v>0.002509541461197814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>3033.031596670422</v>
+        <v>36.577122413634</v>
       </c>
       <c r="R10">
-        <v>3033.031596670422</v>
+        <v>329.194101722706</v>
       </c>
       <c r="S10">
-        <v>0.2892675075622183</v>
+        <v>0.002351738104335371</v>
       </c>
       <c r="T10">
-        <v>0.2892675075622183</v>
+        <v>0.002351738104335371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>1628.128497996133</v>
+        <v>45.22758763473499</v>
       </c>
       <c r="R11">
-        <v>1628.128497996133</v>
+        <v>407.048288712615</v>
       </c>
       <c r="S11">
-        <v>0.1552785249990048</v>
+        <v>0.002907922608152655</v>
       </c>
       <c r="T11">
-        <v>0.1552785249990048</v>
+        <v>0.002907922608152656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>131.9199741084188</v>
+        <v>3992.392451261247</v>
       </c>
       <c r="R12">
-        <v>131.9199741084188</v>
+        <v>35931.53206135123</v>
       </c>
       <c r="S12">
-        <v>0.01258152475229927</v>
+        <v>0.2566921845003375</v>
       </c>
       <c r="T12">
-        <v>0.01258152475229927</v>
+        <v>0.2566921845003375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>130.5765146458691</v>
+        <v>1663.534921989547</v>
       </c>
       <c r="R13">
-        <v>130.5765146458691</v>
+        <v>14971.81429790592</v>
       </c>
       <c r="S13">
-        <v>0.01245339579687748</v>
+        <v>0.1069575244245328</v>
       </c>
       <c r="T13">
-        <v>0.01245339579687748</v>
+        <v>0.1069575244245328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>2238.053828801795</v>
+        <v>138.4819491754761</v>
       </c>
       <c r="R14">
-        <v>2238.053828801795</v>
+        <v>1246.337542579285</v>
       </c>
       <c r="S14">
-        <v>0.2134485686064954</v>
+        <v>0.008903742425544325</v>
       </c>
       <c r="T14">
-        <v>0.2134485686064954</v>
+        <v>0.008903742425544326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>1201.385182640915</v>
+        <v>129.77401715577</v>
       </c>
       <c r="R15">
-        <v>1201.385182640915</v>
+        <v>1167.96615440193</v>
       </c>
       <c r="S15">
-        <v>0.1145789901385193</v>
+        <v>0.008343863075027907</v>
       </c>
       <c r="T15">
-        <v>0.1145789901385193</v>
+        <v>0.008343863075027907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>97.34287089949576</v>
+        <v>160.4654862471194</v>
       </c>
       <c r="R16">
-        <v>97.34287089949576</v>
+        <v>1444.189376224075</v>
       </c>
       <c r="S16">
-        <v>0.009283823378219713</v>
+        <v>0.01031718116506042</v>
       </c>
       <c r="T16">
-        <v>0.009283823378219713</v>
+        <v>0.01031718116506042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>96.35154110349224</v>
+        <v>4593.325973547537</v>
       </c>
       <c r="R17">
-        <v>96.35154110349224</v>
+        <v>41339.93376192784</v>
       </c>
       <c r="S17">
-        <v>0.009189277874777911</v>
+        <v>0.2953294027744124</v>
       </c>
       <c r="T17">
-        <v>0.009189277874777911</v>
+        <v>0.2953294027744125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>170.8389395124624</v>
+        <v>1913.929619485184</v>
       </c>
       <c r="R18">
-        <v>170.8389395124624</v>
+        <v>17225.36657536666</v>
       </c>
       <c r="S18">
-        <v>0.01629331995142828</v>
+        <v>0.1230567337763467</v>
       </c>
       <c r="T18">
-        <v>0.01629331995142828</v>
+        <v>0.1230567337763468</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>91.70618146313427</v>
+        <v>159.3262039693153</v>
       </c>
       <c r="R19">
-        <v>91.70618146313427</v>
+        <v>1433.935835723838</v>
       </c>
       <c r="S19">
-        <v>0.008746238769490775</v>
+        <v>0.01024393063665617</v>
       </c>
       <c r="T19">
-        <v>0.008746238769490775</v>
+        <v>0.01024393063665617</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>7.430541937622522</v>
+        <v>149.307557052636</v>
       </c>
       <c r="R20">
-        <v>7.430541937622522</v>
+        <v>1343.768013473724</v>
       </c>
       <c r="S20">
-        <v>0.0007086686299253098</v>
+        <v>0.009599778441155556</v>
       </c>
       <c r="T20">
-        <v>0.0007086686299253098</v>
+        <v>0.009599778441155558</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.299546240622</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>33.299546240622</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.02644967897225281</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>7.354870061961239</v>
+        <v>184.6186953900233</v>
       </c>
       <c r="R21">
-        <v>7.354870061961239</v>
+        <v>1661.56825851021</v>
       </c>
       <c r="S21">
-        <v>0.0007014516214084428</v>
+        <v>0.0118701196833233</v>
       </c>
       <c r="T21">
-        <v>0.0007014516214084428</v>
+        <v>0.0118701196833233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H22">
+        <v>130.391377</v>
+      </c>
+      <c r="I22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>287.3034183662995</v>
+      </c>
+      <c r="R22">
+        <v>2585.730765296695</v>
+      </c>
+      <c r="S22">
+        <v>0.0184722676879027</v>
+      </c>
+      <c r="T22">
+        <v>0.0184722676879027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H23">
+        <v>130.391377</v>
+      </c>
+      <c r="I23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>119.7124970788693</v>
+      </c>
+      <c r="R23">
+        <v>1077.412473709824</v>
+      </c>
+      <c r="S23">
+        <v>0.007696954335603324</v>
+      </c>
+      <c r="T23">
+        <v>0.007696954335603326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H24">
+        <v>130.391377</v>
+      </c>
+      <c r="I24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>9.965537673425223</v>
+      </c>
+      <c r="R24">
+        <v>89.689839060827</v>
+      </c>
+      <c r="S24">
+        <v>0.000640737519254602</v>
+      </c>
+      <c r="T24">
+        <v>0.000640737519254602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H25">
+        <v>130.391377</v>
+      </c>
+      <c r="I25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>9.338891203494001</v>
+      </c>
+      <c r="R25">
+        <v>84.05002083144601</v>
+      </c>
+      <c r="S25">
+        <v>0.0006004470785627672</v>
+      </c>
+      <c r="T25">
+        <v>0.0006004470785627672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H26">
+        <v>130.391377</v>
+      </c>
+      <c r="I26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>11.54753278677389</v>
+      </c>
+      <c r="R26">
+        <v>103.927795080965</v>
+      </c>
+      <c r="S26">
+        <v>0.0007424524148896843</v>
+      </c>
+      <c r="T26">
+        <v>0.0007424524148896845</v>
       </c>
     </row>
   </sheetData>
